--- a/ELJUVY_0405/eljuvy.xlsx
+++ b/ELJUVY_0405/eljuvy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scirocco\Desktop\Suli\2.félév\BL_Operációs rendszerek\ELJUVY_OSLev\ELJUVY_0405\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E4CBAC-F5FC-442D-8B82-686EE8747058}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E91BE0F-249F-45EC-AEBE-6C96C761A967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="8025" xr2:uid="{80623F85-2543-47E6-A8EF-AEF798E19B84}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="75">
   <si>
     <t>1.Feladat</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>9-18-27</t>
+  </si>
+  <si>
+    <t>3,10,</t>
   </si>
 </sst>
 </file>
@@ -1522,12 +1525,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1546,100 +1633,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2693,11 +2696,11 @@
       <c r="C12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="177" t="s">
+      <c r="D12" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="156"/>
       <c r="G12" s="81"/>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
@@ -3398,11 +3401,11 @@
       <c r="C22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="177" t="s">
+      <c r="D22" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81"/>
       <c r="I22" s="81"/>
@@ -3560,14 +3563,14 @@
     </row>
     <row r="25" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="83"/>
-      <c r="C25" s="187" t="s">
+      <c r="C25" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="189"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="159"/>
       <c r="I25" s="81"/>
       <c r="J25" s="81"/>
       <c r="K25" s="81"/>
@@ -4158,11 +4161,11 @@
       <c r="C33" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="156"/>
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
       <c r="I33" s="81"/>
@@ -4320,16 +4323,16 @@
     </row>
     <row r="36" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="83"/>
-      <c r="C36" s="190" t="s">
+      <c r="C36" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="192" t="s">
+      <c r="D36" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="192"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="193"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="163"/>
       <c r="I36" s="81"/>
       <c r="J36" s="81"/>
       <c r="K36" s="81"/>
@@ -4377,7 +4380,7 @@
     </row>
     <row r="37" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="83"/>
-      <c r="C37" s="191"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="18" t="s">
         <v>3</v>
       </c>
@@ -4662,8 +4665,8 @@
       <c r="D40" s="94">
         <v>0</v>
       </c>
-      <c r="E40" s="95">
-        <v>3.1</v>
+      <c r="E40" s="95" t="s">
+        <v>74</v>
       </c>
       <c r="F40" s="95">
         <v>8</v>
@@ -4918,12 +4921,12 @@
       <c r="C44" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="177" t="s">
+      <c r="D44" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="179"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="156"/>
       <c r="H44" s="81"/>
       <c r="I44" s="81"/>
       <c r="J44" s="81"/>
@@ -5189,14 +5192,14 @@
     </row>
     <row r="50" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="83"/>
-      <c r="C50" s="184" t="s">
+      <c r="C50" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="185"/>
-      <c r="E50" s="185"/>
-      <c r="F50" s="185"/>
-      <c r="G50" s="185"/>
-      <c r="H50" s="186"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="169"/>
+      <c r="H50" s="170"/>
       <c r="I50" s="81"/>
       <c r="J50" s="81"/>
       <c r="K50" s="81"/>
@@ -5720,11 +5723,11 @@
       <c r="C57" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="177" t="s">
+      <c r="D57" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="178"/>
-      <c r="F57" s="179"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="156"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
       <c r="I57" s="81"/>
@@ -5827,10 +5830,10 @@
     </row>
     <row r="59" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="83"/>
-      <c r="C59" s="180" t="s">
+      <c r="C59" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="180"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="81"/>
       <c r="F59" s="81"/>
       <c r="G59" s="81"/>
@@ -5882,14 +5885,14 @@
     </row>
     <row r="60" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="83"/>
-      <c r="C60" s="181" t="s">
+      <c r="C60" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="182"/>
-      <c r="E60" s="182"/>
-      <c r="F60" s="182"/>
-      <c r="G60" s="182"/>
-      <c r="H60" s="183"/>
+      <c r="D60" s="166"/>
+      <c r="E60" s="166"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="166"/>
+      <c r="H60" s="167"/>
       <c r="I60" s="81"/>
       <c r="J60" s="81"/>
       <c r="K60" s="81"/>
@@ -6413,13 +6416,13 @@
       <c r="C67" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="177" t="s">
+      <c r="D67" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="179"/>
+      <c r="E67" s="155"/>
+      <c r="F67" s="155"/>
+      <c r="G67" s="155"/>
+      <c r="H67" s="156"/>
       <c r="I67" s="81"/>
       <c r="J67" s="81"/>
       <c r="K67" s="81"/>
@@ -6558,110 +6561,110 @@
     </row>
     <row r="73" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="83"/>
-      <c r="C73" s="165" t="s">
+      <c r="C73" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="166"/>
-      <c r="E73" s="166"/>
-      <c r="F73" s="166"/>
-      <c r="G73" s="166"/>
-      <c r="H73" s="167"/>
+      <c r="D73" s="172"/>
+      <c r="E73" s="172"/>
+      <c r="F73" s="172"/>
+      <c r="G73" s="172"/>
+      <c r="H73" s="173"/>
       <c r="I73" s="81"/>
       <c r="J73" s="81"/>
       <c r="K73" s="82"/>
     </row>
     <row r="74" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B74" s="83"/>
-      <c r="C74" s="168" t="s">
+      <c r="C74" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="169"/>
-      <c r="E74" s="169"/>
-      <c r="F74" s="170">
+      <c r="D74" s="175"/>
+      <c r="E74" s="175"/>
+      <c r="F74" s="178">
         <v>1</v>
       </c>
-      <c r="G74" s="163"/>
-      <c r="H74" s="164"/>
+      <c r="G74" s="179"/>
+      <c r="H74" s="180"/>
       <c r="I74" s="81"/>
       <c r="K74" s="82"/>
       <c r="M74" s="153"/>
     </row>
     <row r="75" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B75" s="83"/>
-      <c r="C75" s="168" t="s">
+      <c r="C75" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="169"/>
-      <c r="E75" s="169"/>
-      <c r="F75" s="171" t="s">
+      <c r="D75" s="175"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="181" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="172"/>
-      <c r="H75" s="173"/>
+      <c r="G75" s="182"/>
+      <c r="H75" s="183"/>
       <c r="I75" s="81"/>
       <c r="K75" s="82"/>
       <c r="M75" s="153"/>
     </row>
     <row r="76" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B76" s="83"/>
-      <c r="C76" s="168" t="s">
+      <c r="C76" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="169"/>
-      <c r="E76" s="169"/>
-      <c r="F76" s="171" t="s">
+      <c r="D76" s="175"/>
+      <c r="E76" s="175"/>
+      <c r="F76" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="G76" s="172"/>
-      <c r="H76" s="173"/>
+      <c r="G76" s="182"/>
+      <c r="H76" s="183"/>
       <c r="I76" s="81"/>
       <c r="K76" s="82"/>
       <c r="M76" s="81"/>
     </row>
     <row r="77" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="83"/>
-      <c r="C77" s="154" t="s">
+      <c r="C77" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="155"/>
-      <c r="E77" s="155"/>
-      <c r="F77" s="156" t="s">
+      <c r="D77" s="177"/>
+      <c r="E77" s="177"/>
+      <c r="F77" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="G77" s="157"/>
-      <c r="H77" s="158"/>
+      <c r="G77" s="185"/>
+      <c r="H77" s="186"/>
       <c r="I77" s="81"/>
       <c r="K77" s="82"/>
       <c r="M77" s="153"/>
     </row>
     <row r="78" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="83"/>
-      <c r="C78" s="159" t="s">
+      <c r="C78" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="160"/>
-      <c r="E78" s="161"/>
-      <c r="F78" s="165">
+      <c r="D78" s="188"/>
+      <c r="E78" s="189"/>
+      <c r="F78" s="171">
         <v>3</v>
       </c>
-      <c r="G78" s="166"/>
-      <c r="H78" s="167"/>
+      <c r="G78" s="172"/>
+      <c r="H78" s="173"/>
       <c r="I78" s="81"/>
       <c r="K78" s="82"/>
       <c r="M78" s="81"/>
     </row>
     <row r="79" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="83"/>
-      <c r="C79" s="159" t="s">
+      <c r="C79" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="160"/>
-      <c r="E79" s="161"/>
-      <c r="F79" s="174" t="s">
+      <c r="D79" s="188"/>
+      <c r="E79" s="189"/>
+      <c r="F79" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="G79" s="175"/>
-      <c r="H79" s="176"/>
+      <c r="G79" s="191"/>
+      <c r="H79" s="192"/>
       <c r="I79" s="81"/>
       <c r="K79" s="82"/>
       <c r="M79" s="81"/>
@@ -6680,112 +6683,112 @@
     </row>
     <row r="81" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="83"/>
-      <c r="C81" s="165" t="s">
+      <c r="C81" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="166"/>
-      <c r="E81" s="166"/>
-      <c r="F81" s="166"/>
-      <c r="G81" s="166"/>
-      <c r="H81" s="167"/>
+      <c r="D81" s="172"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="172"/>
+      <c r="G81" s="172"/>
+      <c r="H81" s="173"/>
       <c r="I81" s="81"/>
       <c r="K81" s="82"/>
       <c r="M81" s="81"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="83"/>
-      <c r="C82" s="168" t="s">
+      <c r="C82" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="D82" s="169"/>
-      <c r="E82" s="169"/>
-      <c r="F82" s="170">
+      <c r="D82" s="175"/>
+      <c r="E82" s="175"/>
+      <c r="F82" s="178">
         <v>1</v>
       </c>
-      <c r="G82" s="163"/>
-      <c r="H82" s="164"/>
+      <c r="G82" s="179"/>
+      <c r="H82" s="180"/>
       <c r="I82" s="81"/>
       <c r="K82" s="82"/>
       <c r="M82" s="153"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="83"/>
-      <c r="C83" s="168" t="s">
+      <c r="C83" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="169"/>
-      <c r="E83" s="169"/>
-      <c r="F83" s="171" t="s">
+      <c r="D83" s="175"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="G83" s="172"/>
-      <c r="H83" s="173"/>
+      <c r="G83" s="182"/>
+      <c r="H83" s="183"/>
       <c r="I83" s="81"/>
       <c r="K83" s="82"/>
       <c r="M83" s="153"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="83"/>
-      <c r="C84" s="168" t="s">
+      <c r="C84" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="D84" s="169"/>
-      <c r="E84" s="169"/>
-      <c r="F84" s="171" t="s">
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="G84" s="172"/>
-      <c r="H84" s="173"/>
+      <c r="G84" s="182"/>
+      <c r="H84" s="183"/>
       <c r="I84" s="81"/>
       <c r="K84" s="82"/>
       <c r="M84" s="81"/>
     </row>
     <row r="85" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="83"/>
-      <c r="C85" s="154" t="s">
+      <c r="C85" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="D85" s="155"/>
-      <c r="E85" s="155"/>
-      <c r="F85" s="156" t="s">
+      <c r="D85" s="177"/>
+      <c r="E85" s="177"/>
+      <c r="F85" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="G85" s="157"/>
-      <c r="H85" s="158"/>
+      <c r="G85" s="185"/>
+      <c r="H85" s="186"/>
       <c r="I85" s="81"/>
       <c r="K85" s="82"/>
       <c r="M85" s="153"/>
     </row>
     <row r="86" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="83"/>
-      <c r="C86" s="159" t="s">
+      <c r="C86" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="D86" s="160"/>
-      <c r="E86" s="161"/>
-      <c r="F86" s="162">
+      <c r="D86" s="188"/>
+      <c r="E86" s="189"/>
+      <c r="F86" s="193">
         <v>11</v>
       </c>
-      <c r="G86" s="163"/>
-      <c r="H86" s="164"/>
+      <c r="G86" s="179"/>
+      <c r="H86" s="180"/>
       <c r="I86" s="81"/>
       <c r="J86" s="81"/>
       <c r="K86" s="82"/>
     </row>
     <row r="87" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="83"/>
-      <c r="C87" s="159" t="s">
+      <c r="C87" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="D87" s="160"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="165" t="s">
+      <c r="D87" s="188"/>
+      <c r="E87" s="189"/>
+      <c r="F87" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="G87" s="166"/>
-      <c r="H87" s="166"/>
-      <c r="I87" s="166"/>
-      <c r="J87" s="167"/>
+      <c r="G87" s="172"/>
+      <c r="H87" s="172"/>
+      <c r="I87" s="172"/>
+      <c r="J87" s="173"/>
       <c r="K87" s="82"/>
     </row>
     <row r="88" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6802,18 +6805,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="C81:H81"/>
     <mergeCell ref="C73:H73"/>
     <mergeCell ref="C74:E74"/>
     <mergeCell ref="C75:E75"/>
@@ -6823,23 +6831,18 @@
     <mergeCell ref="F75:H75"/>
     <mergeCell ref="F76:H76"/>
     <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
